--- a/xlsx/人权_intext.xlsx
+++ b/xlsx/人权_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699">
   <si>
     <t>人权</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_人权</t>
+    <t>权利</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claim_rights_and_liberty_rights</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%92%8C%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9</t>
@@ -77,9 +77,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%BF%E7%AB%A5%E6%9D%83%E5%88%A9</t>
@@ -107,7 +104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>消費者權利</t>
+    <t>消费者权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fathers%27_rights_movement</t>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>母權</t>
+    <t>母权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fetal_rights</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>女性權利</t>
+    <t>女性权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -185,19 +182,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民自由權</t>
+    <t>公民自由权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>數位著作權</t>
+    <t>数位着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>語言權利</t>
+    <t>语言权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%9D%83</t>
@@ -209,13 +206,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>Template talk-權利</t>
+    <t>Template talk-权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>能動性</t>
+    <t>能动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96</t>
@@ -233,37 +230,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>國際社會</t>
+    <t>国际社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC</t>
   </si>
   <si>
-    <t>價值</t>
+    <t>价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9%E5%92%8C%E6%94%BF%E6%B2%BB%E6%9D%83%E5%88%A9%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -275,15 +272,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%9D%83%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人权宣言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%BA%E6%9D%83%E5%AE%AA%E7%AB%A0</t>
   </si>
   <si>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E9%AD%AF%E5%A3%AB%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>居魯士文書</t>
+    <t>居鲁士文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -323,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>美索不達米亞</t>
+    <t>美索不达米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -341,25 +335,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>大憲章</t>
+    <t>大宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>美國獨立宣言</t>
+    <t>美国独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83%E5%92%8C%E5%85%AC%E6%B0%91%E6%9D%83%E5%AE%A3%E8%A8%80</t>
@@ -389,9 +383,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
-    <t>权利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
   </si>
   <si>
@@ -449,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>公約</t>
+    <t>公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B3%A6%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>天賦人權</t>
+    <t>天赋人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF</t>
@@ -503,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -533,25 +524,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>人權法案</t>
+    <t>人权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
   </si>
   <si>
-    <t>民族自決</t>
+    <t>民族自决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A7%92%E7%8D%B8</t>
   </si>
   <si>
-    <t>獨角獸</t>
+    <t>独角兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%B7%AB</t>
@@ -605,19 +596,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E7%9B%B8%E5%B0%8D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德相對主義</t>
+    <t>道德相对主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E5%8A%9B</t>
@@ -629,13 +620,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>馬克思</t>
+    <t>马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>階級</t>
+    <t>阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
@@ -671,19 +662,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E6%AC%8A</t>
   </si>
   <si>
-    <t>生命權</t>
+    <t>生命权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -695,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%AC%8A</t>
   </si>
   <si>
-    <t>自由權</t>
+    <t>自由权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%BA%AB%E8%87%AA%E7%94%B1</t>
@@ -707,25 +695,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B2%E5%8A%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>獲助權</t>
+    <t>获助权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%81%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>人道主義</t>
+    <t>人道主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -737,19 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E6%95%99%E6%AC%8A</t>
   </si>
   <si>
-    <t>受教權</t>
+    <t>受教权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%BA%BA%E6%9D%83%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -803,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>資產階級革命</t>
+    <t>资产阶级革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%88%91</t>
@@ -815,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B4%E8%A8%9F</t>
   </si>
   <si>
-    <t>訴訟</t>
+    <t>诉讼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89</t>
@@ -845,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>種族屠殺</t>
+    <t>种族屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E5%8F%8A%E6%83%A9%E6%B2%BB%E7%81%AD%E7%BB%9D%E7%A7%8D%E6%97%8F%E7%BD%AA%E5%85%AC%E7%BA%A6</t>
@@ -869,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>日內瓦公約</t>
+    <t>日内瓦公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%99%A4%E4%B8%80%E5%88%87%E5%BD%A2%E5%BC%8F%E7%A7%8D%E6%97%8F%E6%AD%A7%E8%A7%86%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -881,43 +863,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>德黑蘭宣言</t>
+    <t>德黑兰宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%99%A4%E5%B0%8D%E5%A9%A6%E5%A5%B3%E4%B8%80%E5%88%87%E5%BD%A2%E5%BC%8F%E6%AD%A7%E8%A6%96%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>消除對婦女一切形式歧視公約</t>
+    <t>消除对妇女一切形式歧视公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E9%85%B7%E5%88%91%E5%92%8C%E5%85%B6%E4%BB%96%E6%AE%98%E5%BF%8D%E3%80%81%E4%B8%8D%E4%BA%BA%E9%81%93%E6%88%96%E6%9C%89%E8%BE%B1%E4%BA%BA%E6%A0%BC%E7%9A%84%E5%BE%85%E9%81%87%E6%88%96%E8%99%95%E7%BD%B0%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>禁止酷刑和其他殘忍、不人道或有辱人格的待遇或處罰公約</t>
+    <t>禁止酷刑和其他残忍、不人道或有辱人格的待遇或处罚公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E6%AC%8A%E5%88%A9%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>兒童權利公約</t>
+    <t>儿童权利公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>殖民主義</t>
+    <t>殖民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B5%E7%89%A9</t>
   </si>
   <si>
-    <t>寵物</t>
+    <t>宠物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%95%9C</t>
@@ -941,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3%E5%AE%B6</t>
@@ -959,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%AD%BB%E5%88%91</t>
   </si>
   <si>
-    <t>廢除死刑</t>
+    <t>废除死刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B9%90%E6%AD%BB</t>
@@ -1019,9 +1001,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%9D%83%E5%BE%8B%E5%B8%88</t>
   </si>
   <si>
@@ -1031,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -1061,25 +1040,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A0%E8%A6%86%E5%9B%BD%E5%AE%B6%E6%94%BF%E6%9D%83%E7%BD%AA</t>
   </si>
   <si>
-    <t>颠覆国家政权罪</t>
+    <t>颠复国家政权罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>國際人權文書</t>
+    <t>国际人权文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E4%BA%BA%E6%9D%83%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -1103,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%9B%BD%E7%95%8C%E8%AE%B0%E8%80%85</t>
@@ -1133,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>菲律賓人權</t>
+    <t>菲律宾人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E4%BA%BA%E6%9D%83</t>
@@ -1151,31 +1130,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國人權</t>
+    <t>朝鲜民主主义人民共和国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>香港人權</t>
+    <t>香港人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>臺灣人權</t>
+    <t>台湾人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E6%8E%A7%E5%88%B6%E5%9C%B0%E5%8D%80%E4%B8%8B%E7%9A%84%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>伊斯蘭國控制地區下的人權</t>
+    <t>伊斯兰国控制地区下的人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%88%87%E6%B3%95%E5%BE%8B%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然與法律權利</t>
+    <t>自然与法律权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Positive_law</t>
@@ -1205,13 +1184,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E9%81%93%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人道法</t>
+    <t>国际人道法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
@@ -1223,13 +1202,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A1%E5%B9%B3%E6%B3%95</t>
@@ -1241,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -1259,19 +1238,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -1319,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -1331,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -1409,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -1421,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -1457,19 +1436,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -1529,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -1541,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -1577,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -1607,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -1631,25 +1607,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -1661,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -1673,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -1715,13 +1691,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -1745,13 +1721,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -1763,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -1811,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -1835,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -1847,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -1871,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -1889,25 +1865,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -1925,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -1937,25 +1913,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -2015,19 +1991,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -2051,19 +2027,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -2087,13 +2063,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -2105,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -2117,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2135,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>14</v>
@@ -2793,10 +2769,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2822,10 +2798,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2851,10 +2827,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -2880,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2909,10 +2885,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -2938,10 +2914,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2967,10 +2943,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2996,10 +2972,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3025,10 +3001,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3054,10 +3030,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -3083,10 +3059,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3112,10 +3088,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3141,10 +3117,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3170,10 +3146,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3199,10 +3175,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3228,10 +3204,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3257,10 +3233,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3286,10 +3262,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3315,10 +3291,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3344,10 +3320,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3373,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3402,10 +3378,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>11</v>
@@ -3460,10 +3436,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3489,10 +3465,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>8</v>
@@ -3518,10 +3494,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3547,10 +3523,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -3576,10 +3552,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>10</v>
@@ -3605,10 +3581,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -3634,10 +3610,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -3663,10 +3639,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>8</v>
@@ -3692,10 +3668,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3721,10 +3697,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -3750,10 +3726,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3779,10 +3755,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3808,10 +3784,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3837,10 +3813,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -3866,10 +3842,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
         <v>83</v>
-      </c>
-      <c r="F48" t="s">
-        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>8</v>
@@ -3895,10 +3871,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -3924,10 +3900,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3953,10 +3929,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3982,10 +3958,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4011,10 +3987,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4040,10 +4016,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4069,10 +4045,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -4098,10 +4074,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4127,10 +4103,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -4156,10 +4132,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4185,10 +4161,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4214,10 +4190,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4243,10 +4219,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G61" t="n">
         <v>9</v>
@@ -4272,10 +4248,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
         <v>69</v>
-      </c>
-      <c r="F62" t="s">
-        <v>70</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -4301,10 +4277,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4330,10 +4306,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>47</v>
@@ -4359,10 +4335,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4388,10 +4364,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
         <v>53</v>
@@ -4417,10 +4393,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4446,10 +4422,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4475,10 +4451,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4504,10 +4480,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4533,10 +4509,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -4562,10 +4538,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>24</v>
@@ -4591,10 +4567,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4620,10 +4596,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4649,10 +4625,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4678,10 +4654,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>20</v>
@@ -4707,10 +4683,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4736,10 +4712,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4765,10 +4741,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4794,10 +4770,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4823,10 +4799,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4852,10 +4828,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4881,10 +4857,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4910,10 +4886,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -4939,10 +4915,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4968,10 +4944,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4997,10 +4973,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5026,10 +5002,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>14</v>
@@ -5055,10 +5031,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5084,10 +5060,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5113,10 +5089,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5142,10 +5118,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -5171,10 +5147,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5200,10 +5176,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5229,10 +5205,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5258,10 +5234,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5287,10 +5263,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5316,10 +5292,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5345,10 +5321,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5374,10 +5350,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>11</v>
@@ -5403,10 +5379,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5432,10 +5408,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5461,10 +5437,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5490,10 +5466,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5519,10 +5495,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5548,10 +5524,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5577,10 +5553,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5606,10 +5582,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5635,10 +5611,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5664,10 +5640,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5693,10 +5669,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5722,10 +5698,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5751,10 +5727,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5780,10 +5756,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5809,10 +5785,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5838,10 +5814,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>11</v>
@@ -5867,10 +5843,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5896,10 +5872,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
@@ -5925,10 +5901,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5954,10 +5930,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5983,10 +5959,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6012,10 +5988,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6041,10 +6017,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6070,10 +6046,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6099,10 +6075,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -6128,10 +6104,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6157,10 +6133,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6186,10 +6162,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6215,10 +6191,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6244,10 +6220,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>21</v>
@@ -6273,10 +6249,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6302,10 +6278,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -6331,10 +6307,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6360,10 +6336,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6389,10 +6365,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6418,10 +6394,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6447,10 +6423,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F137" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6476,10 +6452,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -6505,10 +6481,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6534,10 +6510,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6563,10 +6539,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -6592,10 +6568,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>12</v>
@@ -6621,10 +6597,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>57</v>
@@ -6650,10 +6626,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>6</v>
@@ -6679,10 +6655,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6708,10 +6684,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6737,10 +6713,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6766,10 +6742,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6795,10 +6771,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6824,10 +6800,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F150" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6853,10 +6829,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6882,10 +6858,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6911,10 +6887,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6940,10 +6916,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6969,10 +6945,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6998,10 +6974,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7027,10 +7003,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7056,10 +7032,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7085,10 +7061,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7114,10 +7090,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>5</v>
@@ -7143,10 +7119,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7172,10 +7148,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7201,10 +7177,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7230,10 +7206,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7259,10 +7235,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7288,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7317,10 +7293,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7346,10 +7322,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7375,10 +7351,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7404,10 +7380,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7433,10 +7409,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7462,10 +7438,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7491,10 +7467,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7520,10 +7496,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -7549,10 +7525,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7578,10 +7554,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7607,10 +7583,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7636,10 +7612,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7665,10 +7641,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7694,10 +7670,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7723,10 +7699,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -7752,10 +7728,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7781,10 +7757,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7810,10 +7786,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7839,10 +7815,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7868,10 +7844,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7897,10 +7873,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7926,10 +7902,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7955,10 +7931,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7984,10 +7960,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8013,10 +7989,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8042,10 +8018,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8071,10 +8047,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8100,10 +8076,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8129,10 +8105,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8158,10 +8134,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8187,10 +8163,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8216,10 +8192,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8245,10 +8221,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8277,7 +8253,7 @@
         <v>19</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
         <v>140</v>
@@ -8303,10 +8279,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8332,10 +8308,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8361,10 +8337,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F203" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -8390,10 +8366,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8419,10 +8395,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8448,10 +8424,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8477,10 +8453,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8506,10 +8482,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8593,10 +8569,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211" t="s">
         <v>61</v>
-      </c>
-      <c r="F211" t="s">
-        <v>62</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8622,10 +8598,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8651,10 +8627,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8680,10 +8656,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8709,10 +8685,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8738,10 +8714,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8767,10 +8743,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8796,10 +8772,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8825,10 +8801,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8854,10 +8830,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8883,10 +8859,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8912,10 +8888,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8941,10 +8917,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8970,10 +8946,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8999,10 +8975,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9028,10 +9004,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9057,10 +9033,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9086,10 +9062,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9115,10 +9091,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9144,10 +9120,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9173,10 +9149,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9202,10 +9178,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9231,10 +9207,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9260,10 +9236,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9289,10 +9265,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9318,10 +9294,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9347,10 +9323,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9376,10 +9352,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9405,10 +9381,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9434,10 +9410,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9463,10 +9439,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9492,10 +9468,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9521,10 +9497,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9550,10 +9526,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9579,10 +9555,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9608,10 +9584,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9637,10 +9613,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9666,10 +9642,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9695,10 +9671,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9724,10 +9700,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9753,10 +9729,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9782,10 +9758,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9811,10 +9787,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>129</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -9840,10 +9816,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9869,10 +9845,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9898,10 +9874,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9927,10 +9903,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9956,10 +9932,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9985,10 +9961,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10014,10 +9990,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10043,10 +10019,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10072,10 +10048,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10101,10 +10077,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10130,10 +10106,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10159,10 +10135,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10188,10 +10164,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10217,10 +10193,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10246,10 +10222,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G268" t="n">
         <v>6</v>
@@ -10275,10 +10251,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10304,10 +10280,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10333,10 +10309,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10362,10 +10338,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10391,10 +10367,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10420,10 +10396,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10449,10 +10425,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>10</v>
@@ -10478,10 +10454,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10507,10 +10483,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10536,10 +10512,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10565,10 +10541,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10594,10 +10570,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10623,10 +10599,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>6</v>
@@ -10652,10 +10628,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10681,10 +10657,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10710,10 +10686,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10739,10 +10715,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10768,10 +10744,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10797,10 +10773,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10826,10 +10802,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10855,10 +10831,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10884,10 +10860,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10913,10 +10889,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10942,10 +10918,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10971,10 +10947,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11000,10 +10976,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11029,10 +11005,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11058,10 +11034,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11087,10 +11063,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11116,10 +11092,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11145,10 +11121,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11174,10 +11150,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11203,10 +11179,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11232,10 +11208,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11261,10 +11237,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11290,10 +11266,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11319,10 +11295,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11348,10 +11324,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11377,10 +11353,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11406,10 +11382,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11435,10 +11411,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11464,10 +11440,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11493,10 +11469,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11522,10 +11498,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11551,10 +11527,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G313" t="n">
         <v>10</v>
@@ -11580,10 +11556,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11609,10 +11585,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11638,10 +11614,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11667,10 +11643,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11696,10 +11672,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11725,10 +11701,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11754,10 +11730,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11783,10 +11759,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11812,10 +11788,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11841,10 +11817,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11870,10 +11846,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11899,10 +11875,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11928,10 +11904,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11957,10 +11933,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11986,10 +11962,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12015,10 +11991,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12044,10 +12020,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12073,10 +12049,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12102,10 +12078,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G332" t="n">
         <v>12</v>
@@ -12131,10 +12107,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12160,10 +12136,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12189,10 +12165,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12218,10 +12194,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12247,10 +12223,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12276,10 +12252,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12305,10 +12281,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12334,10 +12310,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12363,10 +12339,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12392,10 +12368,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12421,10 +12397,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12450,10 +12426,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12479,10 +12455,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12508,10 +12484,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12537,10 +12513,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12566,10 +12542,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12595,10 +12571,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12624,10 +12600,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12653,10 +12629,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12682,10 +12658,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12711,10 +12687,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12740,10 +12716,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12769,10 +12745,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12798,10 +12774,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F356" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12827,10 +12803,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12856,10 +12832,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12885,10 +12861,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12914,10 +12890,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12943,10 +12919,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12972,10 +12948,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13001,10 +12977,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13030,10 +13006,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13059,10 +13035,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13088,10 +13064,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>

--- a/xlsx/人权_intext.xlsx
+++ b/xlsx/人权_intext.xlsx
@@ -29,7 +29,7 @@
     <t>權利</t>
   </si>
   <si>
-    <t>政策_政策_美國_人权</t>
+    <t>体育运动_体育运动_欧洲议会_人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
